--- a/data/trans_orig/P14B19-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B19-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{979C68BF-592F-411D-8318-5D5C2D79CA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17F3535F-49FE-42F0-B8C5-11F158614F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4DCF2D00-A742-4B49-B46E-FFC1AA40185B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F928AF5A-31E1-4226-8921-0746E3091A6C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="317">
   <si>
     <t>Población cuyas varices en las piernas le limita en 2012 (Tasa respuesta: 4,73%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>56,23%</t>
   </si>
   <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
   <si>
     <t>58,66%</t>
   </si>
   <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,19 +115,19 @@
     <t>43,77%</t>
   </si>
   <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
   </si>
   <si>
     <t>41,34%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -136,55 +136,55 @@
     <t>40,98%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>47,37%</t>
   </si>
   <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
   </si>
   <si>
     <t>46,1%</t>
   </si>
   <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
   </si>
   <si>
     <t>59,02%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
   </si>
   <si>
     <t>52,63%</t>
   </si>
   <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
   </si>
   <si>
     <t>53,9%</t>
   </si>
   <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -193,112 +193,112 @@
     <t>58,83%</t>
   </si>
   <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
     <t>27,91%</t>
   </si>
   <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
+    <t>90,72%</t>
   </si>
   <si>
     <t>58,39%</t>
   </si>
   <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
   </si>
   <si>
     <t>58,92%</t>
   </si>
   <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -307,109 +307,109 @@
     <t>45,55%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
   </si>
   <si>
     <t>51,23%</t>
   </si>
   <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
   </si>
   <si>
     <t>50,67%</t>
   </si>
   <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
   </si>
   <si>
     <t>54,45%</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
   </si>
   <si>
     <t>48,77%</t>
   </si>
   <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
   </si>
   <si>
     <t>49,33%</t>
   </si>
   <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
   </si>
   <si>
     <t>47,51%</t>
   </si>
   <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
   </si>
   <si>
     <t>46,93%</t>
   </si>
   <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
   </si>
   <si>
     <t>47,0%</t>
   </si>
   <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
   </si>
   <si>
     <t>52,49%</t>
   </si>
   <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
   </si>
   <si>
     <t>53,07%</t>
   </si>
   <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
   </si>
   <si>
     <t>53,0%</t>
   </si>
   <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -427,7 +427,7 @@
     <t>15,74%</t>
   </si>
   <si>
-    <t>64,51%</t>
+    <t>59,86%</t>
   </si>
   <si>
     <t>65,07%</t>
@@ -439,7 +439,7 @@
     <t>84,26%</t>
   </si>
   <si>
-    <t>35,49%</t>
+    <t>40,14%</t>
   </si>
   <si>
     <t>23,39%</t>
@@ -451,19 +451,19 @@
     <t>38,09%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
   </si>
   <si>
     <t>35,27%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
   </si>
   <si>
     <t>76,61%</t>
@@ -475,508 +475,520 @@
     <t>61,91%</t>
   </si>
   <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
   </si>
   <si>
     <t>64,73%</t>
   </si>
   <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
   </si>
   <si>
     <t>24,69%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
   </si>
   <si>
     <t>75,31%</t>
   </si>
   <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>39,55%</t>
+    <t>39,74%</t>
   </si>
   <si>
     <t>42,22%</t>
   </si>
   <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
   </si>
   <si>
     <t>33,53%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
   </si>
   <si>
     <t>92,21%</t>
   </si>
   <si>
-    <t>60,45%</t>
+    <t>60,26%</t>
   </si>
   <si>
     <t>57,78%</t>
   </si>
   <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
   </si>
   <si>
     <t>66,47%</t>
   </si>
   <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>28,55%</t>
+    <t>30,01%</t>
   </si>
   <si>
     <t>31,27%</t>
   </si>
   <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>Población cuyas varices en las piernas le limita en 2023 (Tasa respuesta: 9,55%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
     <t>19,09%</t>
   </si>
   <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>80,91%</t>
   </si>
   <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>Población cuyas varices en las piernas le limita en 2023 (Tasa respuesta: 9,55%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
   </si>
   <si>
     <t>38,52%</t>
   </si>
   <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
   </si>
   <si>
     <t>25,4%</t>
   </si>
   <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
   <si>
     <t>28,85%</t>
   </si>
   <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
   </si>
   <si>
     <t>61,48%</t>
   </si>
   <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
   </si>
   <si>
     <t>74,6%</t>
   </si>
   <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
   </si>
   <si>
     <t>71,15%</t>
   </si>
   <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
   </si>
   <si>
     <t>24,48%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
   </si>
   <si>
     <t>35,72%</t>
   </si>
   <si>
-    <t>43,15%</t>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
   </si>
   <si>
     <t>33,49%</t>
   </si>
   <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
   </si>
   <si>
     <t>75,52%</t>
   </si>
   <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
   </si>
   <si>
     <t>64,28%</t>
   </si>
   <si>
-    <t>56,85%</t>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
   </si>
   <si>
     <t>66,51%</t>
   </si>
   <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
+    <t>36,4%</t>
   </si>
   <si>
     <t>22,99%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
   </si>
   <si>
     <t>90,98%</t>
   </si>
   <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
+    <t>63,6%</t>
   </si>
   <si>
     <t>77,01%</t>
   </si>
   <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
   </si>
   <si>
     <t>33,04%</t>
   </si>
   <si>
-    <t>25,88%</t>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
   </si>
   <si>
     <t>32,92%</t>
   </si>
   <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
   </si>
   <si>
     <t>67,4%</t>
   </si>
   <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
   </si>
   <si>
     <t>66,96%</t>
   </si>
   <si>
-    <t>74,12%</t>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
   </si>
   <si>
     <t>67,08%</t>
   </si>
   <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
   </si>
   <si>
     <t>25,77%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>30,96%</t>
   </si>
   <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
   </si>
   <si>
     <t>29,69%</t>
   </si>
   <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
   </si>
   <si>
     <t>74,23%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
   </si>
   <si>
     <t>69,04%</t>
   </si>
   <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
   </si>
   <si>
     <t>70,31%</t>
   </si>
   <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370181A9-AB8C-4A99-95EF-75D80D4716F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE30F690-F39C-4260-837A-A6B0B654D892}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2451,7 +2463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C9AA21-187B-490E-A679-E97A40EFD950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D836951-B8EC-4FC2-AC35-4D0DF4E1EB18}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2885,13 +2897,13 @@
         <v>912</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -2900,13 +2912,13 @@
         <v>19068</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -2915,13 +2927,13 @@
         <v>19980</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,10 +2948,10 @@
         <v>8033</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>11</v>
@@ -2951,13 +2963,13 @@
         <v>58149</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -2966,13 +2978,13 @@
         <v>66182</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3052,13 @@
         <v>890</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3055,13 +3067,13 @@
         <v>14272</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3070,13 +3082,13 @@
         <v>15162</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,10 +3103,10 @@
         <v>10532</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>11</v>
@@ -3106,13 +3118,13 @@
         <v>19529</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -3121,13 +3133,13 @@
         <v>30061</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,13 +3207,13 @@
         <v>2041</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -3210,13 +3222,13 @@
         <v>23958</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3225,13 +3237,13 @@
         <v>25999</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,10 +3258,10 @@
         <v>20337</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>11</v>
@@ -3261,13 +3273,13 @@
         <v>52649</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -3276,13 +3288,13 @@
         <v>72986</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3362,13 @@
         <v>6466</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -3365,13 +3377,13 @@
         <v>67443</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -3380,13 +3392,13 @@
         <v>73908</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3413,13 @@
         <v>45875</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H20" s="7">
         <v>131</v>
@@ -3416,13 +3428,13 @@
         <v>150815</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M20" s="7">
         <v>175</v>
@@ -3431,13 +3443,13 @@
         <v>196691</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD8BD1E-F0A6-4BF8-9753-2AFC9BD032ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C961A940-CF4A-4C99-9E4C-85222EF8E6D0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3531,7 +3543,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3644,7 +3656,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3653,13 +3665,13 @@
         <v>3312</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3668,10 +3680,10 @@
         <v>3312</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>221</v>
@@ -3719,13 +3731,13 @@
         <v>14035</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3805,13 @@
         <v>9429</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -3808,13 +3820,13 @@
         <v>17416</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3823,13 +3835,13 @@
         <v>26845</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3856,13 @@
         <v>15049</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>103</v>
@@ -3859,13 +3871,13 @@
         <v>51159</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>121</v>
@@ -3874,13 +3886,13 @@
         <v>66209</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3960,13 @@
         <v>6829</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -3963,13 +3975,13 @@
         <v>40327</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -3978,13 +3990,13 @@
         <v>47157</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +4011,13 @@
         <v>21066</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>125</v>
@@ -4014,13 +4026,13 @@
         <v>72572</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
       <c r="M11" s="7">
         <v>152</v>
@@ -4029,13 +4041,13 @@
         <v>93636</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4115,13 @@
         <v>2867</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -4118,13 +4130,13 @@
         <v>24023</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -4133,13 +4145,13 @@
         <v>26890</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4166,13 @@
         <v>28901</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>97</v>
@@ -4169,13 +4181,13 @@
         <v>61177</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>130</v>
@@ -4184,13 +4196,13 @@
         <v>90079</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4270,13 @@
         <v>13885</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4273,13 +4285,13 @@
         <v>38305</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -4288,13 +4300,13 @@
         <v>52190</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4321,13 @@
         <v>28703</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>126</v>
@@ -4324,13 +4336,13 @@
         <v>77634</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>160</v>
@@ -4339,13 +4351,13 @@
         <v>106336</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,13 +4425,13 @@
         <v>33010</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H19" s="7">
         <v>204</v>
@@ -4428,13 +4440,13 @@
         <v>123384</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>248</v>
@@ -4443,13 +4455,13 @@
         <v>156395</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4476,13 @@
         <v>95109</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>473</v>
@@ -4479,13 +4491,13 @@
         <v>275186</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>587</v>
@@ -4494,13 +4506,13 @@
         <v>370294</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B19-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B19-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17F3535F-49FE-42F0-B8C5-11F158614F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8565747D-349C-493F-9AB9-F1AF807EF59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F928AF5A-31E1-4226-8921-0746E3091A6C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{793BD221-932A-49C7-95E5-BFCE1FA48964}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -85,19 +85,19 @@
     <t>56,23%</t>
   </si>
   <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>58,66%</t>
   </si>
   <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,763 +115,763 @@
     <t>43,77%</t>
   </si>
   <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
   </si>
   <si>
     <t>41,34%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>40,98%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
   </si>
   <si>
     <t>47,37%</t>
   </si>
   <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
   </si>
   <si>
     <t>46,1%</t>
   </si>
   <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
   </si>
   <si>
     <t>59,02%</t>
   </si>
   <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>52,63%</t>
   </si>
   <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
   </si>
   <si>
     <t>53,9%</t>
   </si>
   <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>58,83%</t>
   </si>
   <si>
-    <t>27,71%</t>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyas varices en las piernas le limita en 2016 (Tasa respuesta: 3,61%)</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
   </si>
   <si>
     <t>89,81%</t>
   </si>
   <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyas varices en las piernas le limita en 2015 (Tasa respuesta: 3,61%)</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>Población cuyas varices en las piernas le limita en 2023 (Tasa respuesta: 9,55%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
   </si>
   <si>
     <t>20,72%</t>
   </si>
   <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
   </si>
   <si>
     <t>79,28%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>Población cuyas varices en las piernas le limita en 2023 (Tasa respuesta: 9,55%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
   </si>
   <si>
     <t>77,01%</t>
@@ -1400,7 +1400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE30F690-F39C-4260-837A-A6B0B654D892}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18990797-711C-4FCE-B7B8-041C22E33757}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2463,7 +2463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D836951-B8EC-4FC2-AC35-4D0DF4E1EB18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1581BE-D7C0-40F8-9784-5D38CF945AC7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2897,13 +2897,13 @@
         <v>912</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -2912,13 +2912,13 @@
         <v>19068</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -2927,13 +2927,13 @@
         <v>19980</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,10 +2948,10 @@
         <v>8033</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>11</v>
@@ -2963,13 +2963,13 @@
         <v>58149</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -2978,13 +2978,13 @@
         <v>66182</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3052,13 @@
         <v>890</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3067,13 +3067,13 @@
         <v>14272</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3082,13 +3082,13 @@
         <v>15162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,10 +3103,10 @@
         <v>10532</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>11</v>
@@ -3118,13 +3118,13 @@
         <v>19529</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -3133,10 +3133,10 @@
         <v>30061</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>179</v>
@@ -3526,7 +3526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C961A940-CF4A-4C99-9E4C-85222EF8E6D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60942432-D35D-40B5-9611-3A81FEF6CCAA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3820,13 +3820,13 @@
         <v>17416</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3835,13 +3835,13 @@
         <v>26845</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3856,13 @@
         <v>15049</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>103</v>
@@ -3871,13 +3871,13 @@
         <v>51159</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>121</v>
@@ -3886,13 +3886,13 @@
         <v>66209</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3960,13 @@
         <v>6829</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -3975,13 +3975,13 @@
         <v>40327</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -3990,13 +3990,13 @@
         <v>47157</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4011,13 @@
         <v>21066</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>125</v>
@@ -4026,13 +4026,13 @@
         <v>72572</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M11" s="7">
         <v>152</v>
@@ -4041,13 +4041,13 @@
         <v>93636</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4115,13 @@
         <v>2867</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -4130,13 +4130,13 @@
         <v>24023</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -4145,13 +4145,13 @@
         <v>26890</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4166,13 @@
         <v>28901</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>97</v>
@@ -4181,13 +4181,13 @@
         <v>61177</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>130</v>
